--- a/ReportIntegration/Doc/WBS1_병합시스템구축_20200831.xlsx
+++ b/ReportIntegration/Doc/WBS1_병합시스템구축_20200831.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
   <si>
     <t>대분류</t>
   </si>
@@ -180,6 +180,10 @@
   </si>
   <si>
     <t>View</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -715,32 +719,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -781,12 +761,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -799,19 +773,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -820,17 +785,56 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,7 +1142,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1152,7 +1156,7 @@
   <dimension ref="A1:AA934"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1231,61 +1235,61 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" s="18" customFormat="1" ht="43.5" customHeight="1" thickBot="1">
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="E3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="34" t="s">
+      <c r="I3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="34" t="s">
+      <c r="J3" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="27" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="24" customHeight="1" thickTop="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="41">
+      <c r="B4" s="33">
         <v>1</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="44" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="45">
+      <c r="F4" s="34"/>
+      <c r="G4" s="35">
         <v>44062</v>
       </c>
-      <c r="H4" s="45">
+      <c r="H4" s="35">
         <v>44062</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="47"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="37"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -1307,19 +1311,19 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6"/>
-      <c r="G5" s="39">
+      <c r="G5" s="31">
         <v>44064</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="31">
         <v>44064</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="J5" s="6"/>
@@ -1330,19 +1334,19 @@
       <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="14"/>
-      <c r="G6" s="50">
+      <c r="G6" s="38">
         <v>44068</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="38">
         <v>44068</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="39" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="14"/>
@@ -1369,23 +1373,23 @@
       <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="55" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>20</v>
       </c>
       <c r="F7" s="10"/>
-      <c r="G7" s="53">
+      <c r="G7" s="40">
         <v>44069</v>
       </c>
-      <c r="H7" s="53">
+      <c r="H7" s="40">
         <v>44069</v>
       </c>
-      <c r="I7" s="54" t="s">
+      <c r="I7" s="41" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="9"/>
@@ -1412,19 +1416,19 @@
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
       <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="40">
+      <c r="F8" s="21"/>
+      <c r="G8" s="32">
         <v>44070</v>
       </c>
-      <c r="H8" s="40">
+      <c r="H8" s="32">
         <v>44070</v>
       </c>
-      <c r="I8" s="37" t="s">
+      <c r="I8" s="29" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="4"/>
@@ -1451,19 +1455,19 @@
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="25"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="56"/>
       <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="40">
+      <c r="F9" s="21"/>
+      <c r="G9" s="32">
         <v>44071</v>
       </c>
-      <c r="H9" s="40">
+      <c r="H9" s="32">
         <v>44071</v>
       </c>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="29" t="s">
         <v>16</v>
       </c>
       <c r="J9" s="4"/>
@@ -1490,21 +1494,23 @@
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="47"/>
+      <c r="D10" s="57" t="s">
         <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="40">
+      <c r="F10" s="21"/>
+      <c r="G10" s="32">
         <v>44074</v>
       </c>
-      <c r="H10" s="40">
+      <c r="H10" s="32">
         <v>44074</v>
       </c>
-      <c r="I10" s="37"/>
+      <c r="I10" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="J10" s="4"/>
       <c r="K10" s="5"/>
       <c r="L10" s="1"/>
@@ -1529,19 +1535,21 @@
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
       <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="40">
+      <c r="F11" s="21"/>
+      <c r="G11" s="32">
         <v>44075</v>
       </c>
-      <c r="H11" s="40">
+      <c r="H11" s="32">
         <v>44078</v>
       </c>
-      <c r="I11" s="37"/>
+      <c r="I11" s="29" t="s">
+        <v>43</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="5"/>
       <c r="L11" s="1"/>
@@ -1566,19 +1574,19 @@
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="23"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="45"/>
       <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="12"/>
-      <c r="G12" s="40">
+      <c r="G12" s="32">
         <v>44081</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="32">
         <v>44081</v>
       </c>
-      <c r="I12" s="37"/>
+      <c r="I12" s="29"/>
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
       <c r="L12" s="1"/>
@@ -1603,19 +1611,19 @@
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="24"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="40">
+      <c r="F13" s="21"/>
+      <c r="G13" s="32">
         <v>44082</v>
       </c>
-      <c r="H13" s="40">
+      <c r="H13" s="32">
         <v>44082</v>
       </c>
-      <c r="I13" s="37"/>
+      <c r="I13" s="29"/>
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -1640,21 +1648,21 @@
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="28" t="s">
+      <c r="C14" s="47"/>
+      <c r="D14" s="57" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="40">
+      <c r="F14" s="21"/>
+      <c r="G14" s="32">
         <v>44083</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="32">
         <v>44083</v>
       </c>
-      <c r="I14" s="37"/>
+      <c r="I14" s="29"/>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
       <c r="L14" s="1"/>
@@ -1679,19 +1687,19 @@
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="45"/>
       <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="40">
+      <c r="F15" s="21"/>
+      <c r="G15" s="32">
         <v>44084</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="32">
         <v>44088</v>
       </c>
-      <c r="I15" s="37"/>
+      <c r="I15" s="29"/>
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
       <c r="L15" s="1"/>
@@ -1716,19 +1724,19 @@
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="23"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="45"/>
       <c r="E16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="40">
+      <c r="F16" s="21"/>
+      <c r="G16" s="32">
         <v>44089</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="32">
         <v>44089</v>
       </c>
-      <c r="I16" s="37"/>
+      <c r="I16" s="29"/>
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
@@ -1753,19 +1761,19 @@
       <c r="B17" s="13">
         <v>14</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="56"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F17" s="57"/>
-      <c r="G17" s="50">
+      <c r="F17" s="42"/>
+      <c r="G17" s="38">
         <v>44090</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H17" s="38">
         <v>44092</v>
       </c>
-      <c r="I17" s="51"/>
+      <c r="I17" s="39"/>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
       <c r="L17" s="1"/>
@@ -1789,23 +1797,23 @@
       <c r="B18" s="8">
         <v>15</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="44" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="53">
+      <c r="F18" s="43"/>
+      <c r="G18" s="40">
         <v>44095</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="40">
         <v>44096</v>
       </c>
-      <c r="I18" s="54"/>
+      <c r="I18" s="41"/>
       <c r="J18" s="9"/>
       <c r="K18" s="11"/>
     </row>
@@ -1813,19 +1821,19 @@
       <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="23"/>
-      <c r="D19" s="26"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="47"/>
       <c r="E19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="40">
+      <c r="F19" s="21"/>
+      <c r="G19" s="32">
         <v>44096</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="32">
         <v>44097</v>
       </c>
-      <c r="I19" s="37"/>
+      <c r="I19" s="29"/>
       <c r="J19" s="4"/>
       <c r="K19" s="5"/>
     </row>
@@ -1833,19 +1841,19 @@
       <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="47"/>
       <c r="E20" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="40">
+      <c r="F20" s="21"/>
+      <c r="G20" s="32">
         <v>44098</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="32">
         <v>44103</v>
       </c>
-      <c r="I20" s="37"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="4"/>
       <c r="K20" s="5"/>
     </row>
@@ -1853,19 +1861,19 @@
       <c r="B21" s="13">
         <v>18</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="55"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="57"/>
-      <c r="G21" s="50">
+      <c r="F21" s="42"/>
+      <c r="G21" s="38">
         <v>44109</v>
       </c>
-      <c r="H21" s="50">
+      <c r="H21" s="38">
         <v>44112</v>
       </c>
-      <c r="I21" s="51"/>
+      <c r="I21" s="39"/>
       <c r="J21" s="14"/>
       <c r="K21" s="15"/>
     </row>
@@ -1874,23 +1882,23 @@
       <c r="B22" s="8">
         <v>19</v>
       </c>
-      <c r="C22" s="52" t="s">
+      <c r="C22" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="41" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="53">
+      <c r="F22" s="43"/>
+      <c r="G22" s="40">
         <v>44116</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="40">
         <v>44117</v>
       </c>
-      <c r="I22" s="54"/>
+      <c r="I22" s="41"/>
       <c r="J22" s="9"/>
       <c r="K22" s="11"/>
       <c r="L22" s="1"/>
@@ -1915,21 +1923,21 @@
       <c r="B23" s="13">
         <v>20</v>
       </c>
-      <c r="C23" s="55"/>
-      <c r="D23" s="51" t="s">
+      <c r="C23" s="48"/>
+      <c r="D23" s="39" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F23" s="57"/>
-      <c r="G23" s="50">
+      <c r="F23" s="42"/>
+      <c r="G23" s="38">
         <v>44118</v>
       </c>
-      <c r="H23" s="50">
+      <c r="H23" s="38">
         <v>44118</v>
       </c>
-      <c r="I23" s="51"/>
+      <c r="I23" s="39"/>
       <c r="J23" s="14"/>
       <c r="K23" s="15"/>
       <c r="L23" s="1"/>
@@ -1951,28 +1959,28 @@
     </row>
     <row r="24" spans="1:27" ht="24" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="30">
+      <c r="B24" s="22">
         <v>21</v>
       </c>
-      <c r="C24" s="36" t="s">
+      <c r="C24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="36" t="s">
+      <c r="D24" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F24" s="19"/>
-      <c r="G24" s="38">
+      <c r="G24" s="30">
         <v>44119</v>
       </c>
-      <c r="H24" s="38">
+      <c r="H24" s="30">
         <v>44120</v>
       </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="32"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="24"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -28382,6 +28390,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="C22:C23"/>
     <mergeCell ref="C18:C21"/>
     <mergeCell ref="D18:D21"/>
     <mergeCell ref="C4:D6"/>
@@ -28389,7 +28398,6 @@
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="D14:D17"/>
     <mergeCell ref="C7:C17"/>
-    <mergeCell ref="C22:C23"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/ReportIntegration/Doc/WBS1_병합시스템구축_20200831.xlsx
+++ b/ReportIntegration/Doc/WBS1_병합시스템구축_20200831.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Sgs\ReportIntegration\ReportIntegration\Doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE570EBD-2CAE-4758-B603-6E603F8B2051}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38070" yWindow="-5235" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="30210" yWindow="1530" windowWidth="27390" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBS" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>대분류</t>
   </si>
@@ -190,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
@@ -791,6 +797,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,9 +813,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -823,9 +832,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1142,21 +1148,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AA934"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1271,10 +1277,10 @@
       <c r="B4" s="33">
         <v>1</v>
       </c>
-      <c r="C4" s="49" t="s">
+      <c r="C4" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="50"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="34" t="s">
         <v>14</v>
       </c>
@@ -1311,8 +1317,8 @@
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
@@ -1334,8 +1340,8 @@
       <c r="B6" s="13">
         <v>3</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
       <c r="E6" s="14" t="s">
         <v>13</v>
       </c>
@@ -1373,10 +1379,10 @@
       <c r="B7" s="8">
         <v>4</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="D7" s="44" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -1416,8 +1422,8 @@
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
       <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1455,7 +1461,7 @@
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="47"/>
+      <c r="C9" s="49"/>
       <c r="D9" s="56"/>
       <c r="E9" s="4" t="s">
         <v>19</v>
@@ -1494,7 +1500,7 @@
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="47"/>
+      <c r="C10" s="49"/>
       <c r="D10" s="57" t="s">
         <v>22</v>
       </c>
@@ -1535,8 +1541,8 @@
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1574,8 +1580,8 @@
       <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="45"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="47"/>
       <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
@@ -1586,7 +1592,9 @@
       <c r="H12" s="32">
         <v>44081</v>
       </c>
-      <c r="I12" s="29"/>
+      <c r="I12" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="5"/>
       <c r="L12" s="1"/>
@@ -1611,7 +1619,7 @@
       <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="47"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="58"/>
       <c r="E13" s="4" t="s">
         <v>26</v>
@@ -1623,7 +1631,9 @@
       <c r="H13" s="32">
         <v>44082</v>
       </c>
-      <c r="I13" s="29"/>
+      <c r="I13" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="5"/>
       <c r="L13" s="1"/>
@@ -1648,7 +1658,7 @@
       <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="C14" s="47"/>
+      <c r="C14" s="49"/>
       <c r="D14" s="57" t="s">
         <v>29</v>
       </c>
@@ -1662,7 +1672,9 @@
       <c r="H14" s="32">
         <v>44083</v>
       </c>
-      <c r="I14" s="29"/>
+      <c r="I14" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="J14" s="4"/>
       <c r="K14" s="5"/>
       <c r="L14" s="1"/>
@@ -1687,8 +1699,8 @@
       <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="45"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="47"/>
       <c r="E15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1699,7 +1711,9 @@
       <c r="H15" s="32">
         <v>44088</v>
       </c>
-      <c r="I15" s="29"/>
+      <c r="I15" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="J15" s="4"/>
       <c r="K15" s="5"/>
       <c r="L15" s="1"/>
@@ -1724,8 +1738,8 @@
       <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="45"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="47"/>
       <c r="E16" s="4" t="s">
         <v>28</v>
       </c>
@@ -1736,7 +1750,9 @@
       <c r="H16" s="32">
         <v>44089</v>
       </c>
-      <c r="I16" s="29"/>
+      <c r="I16" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="J16" s="4"/>
       <c r="K16" s="5"/>
       <c r="L16" s="1"/>
@@ -1761,8 +1777,8 @@
       <c r="B17" s="13">
         <v>14</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="46"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="14" t="s">
         <v>21</v>
       </c>
@@ -1773,7 +1789,9 @@
       <c r="H17" s="38">
         <v>44092</v>
       </c>
-      <c r="I17" s="39"/>
+      <c r="I17" s="29" t="s">
+        <v>15</v>
+      </c>
       <c r="J17" s="14"/>
       <c r="K17" s="15"/>
       <c r="L17" s="1"/>
@@ -1797,10 +1815,10 @@
       <c r="B18" s="8">
         <v>15</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="44" t="s">
+      <c r="D18" s="46" t="s">
         <v>42</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -1821,8 +1839,8 @@
       <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="49"/>
       <c r="E19" s="4" t="s">
         <v>37</v>
       </c>
@@ -1841,8 +1859,8 @@
       <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="49"/>
       <c r="E20" s="4" t="s">
         <v>38</v>
       </c>
@@ -1861,8 +1879,8 @@
       <c r="B21" s="13">
         <v>18</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="45"/>
       <c r="E21" s="14" t="s">
         <v>39</v>
       </c>
@@ -1882,7 +1900,7 @@
       <c r="B22" s="8">
         <v>19</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="44" t="s">
         <v>33</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -1923,7 +1941,7 @@
       <c r="B23" s="13">
         <v>20</v>
       </c>
-      <c r="C23" s="48"/>
+      <c r="C23" s="45"/>
       <c r="D23" s="39" t="s">
         <v>31</v>
       </c>
